--- a/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
+++ b/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768E697-997B-3649-8020-E6DC4C7092C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11690007-0584-1349-977B-A2B3AAF55DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId2"/>
-    <sheet name="PLANEACION 28-08-2022" sheetId="9" r:id="rId3"/>
+    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId2"/>
+    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId3"/>
+    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId4"/>
+    <sheet name="PLANEACION 28-08-2022" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -145,6 +146,21 @@
   </si>
   <si>
     <t xml:space="preserve">HELVER ROA </t>
+  </si>
+  <si>
+    <t>FORMATO SEGUIMIENTO-SPRINT2</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>HACIENDO</t>
+  </si>
+  <si>
+    <t>VERIFICAR</t>
+  </si>
+  <si>
+    <t>HACER</t>
   </si>
 </sst>
 </file>
@@ -539,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,26 +601,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,37 +699,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -778,36 +771,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -876,6 +839,266 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -890,16 +1113,205 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71121</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3058160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA26420-3122-B049-8B3E-88A5076AFB08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8643621" y="584200"/>
+          <a:ext cx="2987039" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44CF29A-F256-C142-90BA-BA313CDECA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8633460" y="2857500"/>
+          <a:ext cx="2987040" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>202404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3025777</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772087A5-257B-8B45-B455-0532079265AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="5187154"/>
+          <a:ext cx="2978152" cy="1861345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Tabla13" displayName="Tabla13" ref="A1:F7" totalsRowCount="1" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Tabla1345" displayName="Tabla1345" ref="A1:F7" totalsRowCount="1" headerRowDxfId="37">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" totalsRowDxfId="24" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" totalsRowDxfId="31" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="35" totalsRowDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="34" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="28" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Tabla134" displayName="Tabla134" ref="A1:F7" totalsRowCount="1" headerRowDxfId="47">
+  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" totalsRowDxfId="41" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="45" totalsRowDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="44" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="38" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Tabla13" displayName="Tabla13" ref="A1:F7" totalsRowCount="1" headerRowDxfId="67">
+  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" totalsRowDxfId="65" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Tabla13[[#This Row],[ESTADO]]="HECHO",Tabla13[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -907,16 +1319,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41261913-023D-9742-9092-C234634FC4AA}" name="Tabla1" displayName="Tabla1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="9">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41261913-023D-9742-9092-C234634FC4AA}" name="Tabla1" displayName="Tabla1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="57">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B00B770C-E8F2-CB46-A39B-1F22E5737A8F}" name="ID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{5618240B-7421-2E49-B85A-37682FDA546C}" name="VALOR" totalsRowDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{FD0BACDA-4B7C-AE4A-B6CC-54F3CF36C08D}" name="ACTIVIDAD" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{FD255310-A28E-5448-BD5D-4F7B55D7AFCB}" name="RESPONSABLE" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{EDB2A1F3-0893-E44D-BCDD-5AACC2B519F8}" name="ESTADO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{684EEF9A-6840-2141-90A0-69B802ECABA8}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{B00B770C-E8F2-CB46-A39B-1F22E5737A8F}" name="ID" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{5618240B-7421-2E49-B85A-37682FDA546C}" name="VALOR" totalsRowDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{FD0BACDA-4B7C-AE4A-B6CC-54F3CF36C08D}" name="ACTIVIDAD" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{FD255310-A28E-5448-BD5D-4F7B55D7AFCB}" name="RESPONSABLE" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{EDB2A1F3-0893-E44D-BCDD-5AACC2B519F8}" name="ESTADO" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{684EEF9A-6840-2141-90A0-69B802ECABA8}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Tabla1[[#This Row],[ESTADO]]="HECHO",Tabla1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1189,14 +1601,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30953C18-D402-474E-9F52-63E7C872EAD8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="50.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
@@ -1216,210 +1628,214 @@
       <c r="D1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="37">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="40"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="41"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="41"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="41"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="41"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+      <c r="B2" s="44"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="41"/>
+      <c r="F2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="42"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="42"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="42"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50">
         <v>2</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="41"/>
-      <c r="F9" s="21" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="42"/>
+      <c r="F9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="41"/>
-      <c r="F10" s="21" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="28">
         <v>44798</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="41"/>
-      <c r="F11" s="21" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="42"/>
+      <c r="F11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="41"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
         <v>3</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="41"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="41"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
         <v>4</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="41"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="41"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="42"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="42"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="43"/>
       <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1471,15 +1887,16 @@
     <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2A483-9E80-6B40-A127-ED09E1519ABA}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1488,12 +1905,11 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="5" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1929,571 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="7">
+        <f>SUBTOTAL(109,Tabla1345[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <f>COUNTIF(Tabla1345[ESTADO],"HACER")</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <f>COUNTIF(Tabla1345[ESTADO],"HACIENDO")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <f>COUNTIF(Tabla1345[ESTADO],"VERIFICAR")</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
+        <f>COUNTIF(Tabla1345[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="21">
+        <v>4</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="27" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{6170A9F1-E19F-484B-9790-FDDD9E0D5236}">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{671F6103-46E0-914B-B39F-9316FCB480FB}">
+      <formula1>"HACER, HACIENDO, HECHO, VERIFICAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44FC23-7A3E-0C46-A9BD-B97D74A269B3}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="7">
+        <f>SUBTOTAL(109,Tabla134[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <f>COUNTIF(Tabla134[ESTADO],"HACER")</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <f>COUNTIF(Tabla134[ESTADO],"HACIENDO")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <f>COUNTIF(Tabla134[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
+        <f>COUNTIF(Tabla134[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="21">
+        <v>4</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{25B94203-5B38-0441-8EC2-1CF4321DE995}">
+      <formula1>"HACER, HACIENDO, HECHO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{93BE478C-9AF0-FE43-89C3-052AAE7BD85D}">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1532,7 +2512,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1549,7 +2529,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1568,7 +2548,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1587,7 +2567,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1607,7 +2587,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1616,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1624,17 +2604,17 @@
         <f>COUNTIF(Tabla13[ESTADO],"HACER")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1642,17 +2622,17 @@
         <f>COUNTIF(Tabla13[ESTADO],"HACIENDO")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="22">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1660,17 +2640,17 @@
         <f>COUNTIF(Tabla13[ESTADO],"VERIFICAR")</f>
         <v>0</v>
       </c>
-      <c r="F12" s="22">
+      <c r="G12" s="21">
         <v>2</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -1678,24 +2658,24 @@
         <f>COUNTIF(Tabla13[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="I13" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F14" s="22">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="21">
         <v>4</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="I14" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1705,28 +2685,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1745,12 +2725,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BC46D-31D7-9346-BF0C-A8183120C5EB}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G10" sqref="G10:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1759,12 +2739,11 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="5" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +2763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1800,7 +2779,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1816,7 +2795,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1832,7 +2811,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1848,7 +2827,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1865,7 +2844,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1874,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1882,17 +2861,17 @@
         <f>COUNTIF(Tabla1[ESTADO],"HACER")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1900,17 +2879,17 @@
         <f>COUNTIF(Tabla1[ESTADO],"HACIENDO")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="22">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1918,17 +2897,17 @@
         <f>COUNTIF(Tabla1[ESTADO],"VERIFICAR")</f>
         <v>0</v>
       </c>
-      <c r="F12" s="22">
+      <c r="G12" s="21">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -1936,24 +2915,24 @@
         <f>COUNTIF(Tabla1[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F14" s="22">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="21">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1963,28 +2942,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
+++ b/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11690007-0584-1349-977B-A2B3AAF55DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16703F0-D462-2F48-93F0-4A77411B10C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId2"/>
-    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId3"/>
-    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId4"/>
-    <sheet name="PLANEACION 28-08-2022" sheetId="9" r:id="rId5"/>
+    <sheet name="REUNION 01-09-2022" sheetId="20" r:id="rId2"/>
+    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId3"/>
+    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId4"/>
+    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId5"/>
+    <sheet name="PLANEACION 28-08-2022" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -161,6 +162,12 @@
   </si>
   <si>
     <t>HACER</t>
+  </si>
+  <si>
+    <t>POSPUESTO</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES POSPUESTAS</t>
   </si>
 </sst>
 </file>
@@ -216,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +272,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -555,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,6 +629,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,69 +713,44 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="87">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -732,6 +783,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -771,6 +832,28 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -841,6 +924,36 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -911,6 +1024,36 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -984,15 +1127,103 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
@@ -1003,96 +1234,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1265,20 +1406,70 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>238123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3044825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4416DBF0-10D9-1440-9495-4A595988F4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="7508873"/>
+          <a:ext cx="2997200" cy="1873251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Tabla1345" displayName="Tabla1345" ref="A1:F7" totalsRowCount="1" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70A4F03D-6E61-E84D-BEFA-21C76986CDAA}" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" totalsRowDxfId="31" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="35" totalsRowDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="34" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="28" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{1B44A4FC-9761-4840-B362-B0B67D46979D}" name="ID" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{BDDC95EC-E4E2-9548-BB7C-B4B36749B07D}" name="VALOR" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{7FC7D9C6-9373-1D43-8BC0-9693E8633ADC}" name="ACTIVIDAD" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5A31B5C8-136A-C54E-8EC8-BD9E610E161C}" name="RESPONSABLE" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{ADB9CF60-B088-1546-A904-459333E6AE8A}" name="ESTADO" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C4728F1A-A765-704A-88C1-4AD6C63B8640}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1286,16 +1477,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Tabla134" displayName="Tabla134" ref="A1:F7" totalsRowCount="1" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="86">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" totalsRowDxfId="41" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="45" totalsRowDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="44" totalsRowDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="38" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" totalsRowDxfId="21" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="84" totalsRowDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="83" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1303,16 +1494,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Tabla13" displayName="Tabla13" ref="A1:F7" totalsRowCount="1" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="73">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" totalsRowDxfId="65" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Tabla13[[#This Row],[ESTADO]]="HECHO",Tabla13[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" totalsRowDxfId="71" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1320,16 +1511,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41261913-023D-9742-9092-C234634FC4AA}" name="Tabla1" displayName="Tabla1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="56">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B00B770C-E8F2-CB46-A39B-1F22E5737A8F}" name="ID" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{5618240B-7421-2E49-B85A-37682FDA546C}" name="VALOR" totalsRowDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{FD0BACDA-4B7C-AE4A-B6CC-54F3CF36C08D}" name="ACTIVIDAD" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{FD255310-A28E-5448-BD5D-4F7B55D7AFCB}" name="RESPONSABLE" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{EDB2A1F3-0893-E44D-BCDD-5AACC2B519F8}" name="ESTADO" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{684EEF9A-6840-2141-90A0-69B802ECABA8}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Tabla1[[#This Row],[ESTADO]]="HECHO",Tabla1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" totalsRowDxfId="54" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41261913-023D-9742-9092-C234634FC4AA}" name="Planeacion" displayName="Planeacion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="39">
+  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B00B770C-E8F2-CB46-A39B-1F22E5737A8F}" name="ID" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{5618240B-7421-2E49-B85A-37682FDA546C}" name="VALOR" totalsRowDxfId="37" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{FD0BACDA-4B7C-AE4A-B6CC-54F3CF36C08D}" name="ACTIVIDAD" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{FD255310-A28E-5448-BD5D-4F7B55D7AFCB}" name="RESPONSABLE" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{EDB2A1F3-0893-E44D-BCDD-5AACC2B519F8}" name="ESTADO" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{684EEF9A-6840-2141-90A0-69B802ECABA8}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1601,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30953C18-D402-474E-9F52-63E7C872EAD8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1628,214 +1836,214 @@
       <c r="D1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="41"/>
-      <c r="F2" s="24" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="42"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="28"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="42"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="28"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="42"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="42"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="51"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="28"/>
       <c r="F9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="28"/>
       <c r="F10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="28">
-        <v>44798</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="47">
+        <v>44805</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="28"/>
       <c r="F11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="42"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+      <c r="A14" s="24">
         <v>3</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="42"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="42"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="24">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="42"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="42"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="29"/>
       <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1844,6 +2052,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="B2:B3"/>
@@ -1860,31 +2093,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1892,11 +2100,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2A483-9E80-6B40-A127-ED09E1519ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19891FED-D2D3-7A41-B50E-8194D783E769}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1946,7 +2154,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1964,10 +2172,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1988,7 +2196,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="6" t="str">
-        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2009,7 +2217,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2030,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f>IF(Tabla1345[[#This Row],[ESTADO]]="HECHO",Tabla1345[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="7"/>
@@ -2040,7 +2248,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="7">
-        <f>SUBTOTAL(109,Tabla1345[PROGRESO])</f>
+        <f>SUBTOTAL(109,Reunion3[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
@@ -2049,8 +2257,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="3">
-        <f>COUNTIF(Tabla1345[ESTADO],"HACER")</f>
-        <v>3</v>
+        <f>COUNTIF(Reunion3[ESTADO],"HACER")</f>
+        <v>2</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>18</v>
@@ -2067,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="3">
-        <f>COUNTIF(Tabla1345[ESTADO],"HACIENDO")</f>
+        <f>COUNTIF(Reunion3[ESTADO],"HACIENDO")</f>
         <v>1</v>
       </c>
       <c r="G11" s="21">
@@ -2085,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3">
-        <f>COUNTIF(Tabla1345[ESTADO],"VERIFICAR")</f>
+        <f>COUNTIF(Reunion3[ESTADO],"VERIFICAR")</f>
         <v>1</v>
       </c>
       <c r="G12" s="21">
@@ -2103,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <f>COUNTIF(Tabla1345[ESTADO],"HECHO")</f>
+        <f>COUNTIF(Reunion3[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
       <c r="G13" s="21">
@@ -2117,6 +2325,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <f>COUNTIF(Reunion3[ESTADO],"POSPUESTO")</f>
+        <v>1</v>
+      </c>
       <c r="G14" s="21">
         <v>4</v>
       </c>
@@ -2133,37 +2348,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="27" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{6170A9F1-E19F-484B-9790-FDDD9E0D5236}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{2AE79F35-8A65-9740-9C88-22C3A49FC57C}">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{65EEF0F7-1C29-4B42-BFB4-0282A602D55E}">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{671F6103-46E0-914B-B39F-9316FCB480FB}">
-      <formula1>"HACER, HACIENDO, HECHO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,11 +2392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44FC23-7A3E-0C46-A9BD-B97D74A269B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2A483-9E80-6B40-A127-ED09E1519ABA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2225,10 +2443,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2249,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2267,10 +2485,10 @@
         <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="str">
-        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2291,7 +2509,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2312,7 +2530,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f>IF(Tabla134[[#This Row],[ESTADO]]="HECHO",Tabla134[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="7"/>
@@ -2322,7 +2540,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="7">
-        <f>SUBTOTAL(109,Tabla134[PROGRESO])</f>
+        <f>SUBTOTAL(109,Reunion2[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
@@ -2331,8 +2549,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="3">
-        <f>COUNTIF(Tabla134[ESTADO],"HACER")</f>
-        <v>4</v>
+        <f>COUNTIF(Reunion2[ESTADO],"HACER")</f>
+        <v>3</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>18</v>
@@ -2349,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="3">
-        <f>COUNTIF(Tabla134[ESTADO],"HACIENDO")</f>
+        <f>COUNTIF(Reunion2[ESTADO],"HACIENDO")</f>
         <v>1</v>
       </c>
       <c r="G11" s="21">
@@ -2367,8 +2585,8 @@
         <v>14</v>
       </c>
       <c r="D12" s="3">
-        <f>COUNTIF(Tabla134[ESTADO],"VERIFICAR")</f>
-        <v>0</v>
+        <f>COUNTIF(Reunion2[ESTADO],"VERIFICAR")</f>
+        <v>1</v>
       </c>
       <c r="G12" s="21">
         <v>2</v>
@@ -2385,7 +2603,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <f>COUNTIF(Tabla134[ESTADO],"HECHO")</f>
+        <f>COUNTIF(Reunion2[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
       <c r="G13" s="21">
@@ -2399,6 +2617,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <f>COUNTIF(Reunion2[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
       <c r="G14" s="21">
         <v>4</v>
       </c>
@@ -2415,37 +2640,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{25B94203-5B38-0441-8EC2-1CF4321DE995}">
-      <formula1>"HACER, HACIENDO, HECHO, VERIFICAR"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{6170A9F1-E19F-484B-9790-FDDD9E0D5236}">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{93BE478C-9AF0-FE43-89C3-052AAE7BD85D}">
-      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{671F6103-46E0-914B-B39F-9316FCB480FB}">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2456,11 +2684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44FC23-7A3E-0C46-A9BD-B97D74A269B3}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2506,9 +2734,11 @@
       <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="6" t="str">
-        <f>IF(Tabla13[[#This Row],[ESTADO]]="HECHO",Tabla13[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2522,10 +2752,14 @@
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F3" s="6" t="str">
-        <f>IF(Tabla13[[#This Row],[ESTADO]]="HECHO",Tabla13[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2540,11 +2774,13 @@
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="6" t="str">
-        <f>IF(Tabla13[[#This Row],[ESTADO]]="HECHO",Tabla13[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2561,9 +2797,11 @@
       <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" s="6" t="str">
-        <f>IF(Tabla13[[#This Row],[ESTADO]]="HECHO",Tabla13[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2580,9 +2818,11 @@
       <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="6" t="str">
-        <f>IF(Tabla13[[#This Row],[ESTADO]]="HECHO",Tabla13[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="7"/>
@@ -2592,7 +2832,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="7">
-        <f>SUBTOTAL(109,Tabla13[PROGRESO])</f>
+        <f>SUBTOTAL(109,Reunion1[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
@@ -2601,8 +2841,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="3">
-        <f>COUNTIF(Tabla13[ESTADO],"HACER")</f>
-        <v>0</v>
+        <f>COUNTIF(Reunion1[ESTADO],"HACER")</f>
+        <v>4</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>18</v>
@@ -2619,8 +2859,8 @@
         <v>12</v>
       </c>
       <c r="D11" s="3">
-        <f>COUNTIF(Tabla13[ESTADO],"HACIENDO")</f>
-        <v>0</v>
+        <f>COUNTIF(Reunion1[ESTADO],"HACIENDO")</f>
+        <v>1</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
@@ -2637,7 +2877,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3">
-        <f>COUNTIF(Tabla13[ESTADO],"VERIFICAR")</f>
+        <f>COUNTIF(Reunion1[ESTADO],"VERIFICAR")</f>
         <v>0</v>
       </c>
       <c r="G12" s="21">
@@ -2655,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <f>COUNTIF(Tabla13[ESTADO],"HECHO")</f>
+        <f>COUNTIF(Reunion1[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
       <c r="G13" s="21">
@@ -2669,6 +2909,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <f>COUNTIF(Reunion1[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
       <c r="G14" s="21">
         <v>4</v>
       </c>
@@ -2685,37 +2932,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{4FD64113-ED80-0F43-95A9-9DBF9E178A47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{25B94203-5B38-0441-8EC2-1CF4321DE995}">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{93BE478C-9AF0-FE43-89C3-052AAE7BD85D}">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{6E820B98-BCB9-B74E-A3AF-83B065D33FFD}">
-      <formula1>"HACER, HACIENDO, HECHO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2726,11 +2973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BC46D-31D7-9346-BF0C-A8183120C5EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2773,9 +3020,12 @@
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="str">
-        <f>IF(Tabla1[[#This Row],[ESTADO]]="HECHO",Tabla1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2789,9 +3039,10 @@
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="str">
-        <f>IF(Tabla1[[#This Row],[ESTADO]]="HECHO",Tabla1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2805,9 +3056,12 @@
       <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="str">
-        <f>IF(Tabla1[[#This Row],[ESTADO]]="HECHO",Tabla1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2821,9 +3075,12 @@
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="str">
-        <f>IF(Tabla1[[#This Row],[ESTADO]]="HECHO",Tabla1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2837,9 +3094,12 @@
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="str">
-        <f>IF(Tabla1[[#This Row],[ESTADO]]="HECHO",Tabla1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="7"/>
@@ -2849,7 +3109,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="F7" s="7">
-        <f>SUBTOTAL(109,Tabla1[PROGRESO])</f>
+        <f>SUBTOTAL(109,Distribucion[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
@@ -2858,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="3">
-        <f>COUNTIF(Tabla1[ESTADO],"HACER")</f>
+        <f>COUNTIF(Distribucion[ESTADO],"HACER")</f>
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
@@ -2876,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="3">
-        <f>COUNTIF(Tabla1[ESTADO],"HACIENDO")</f>
+        <f>COUNTIF(Distribucion[ESTADO],"HACIENDO")</f>
         <v>0</v>
       </c>
       <c r="G11" s="21">
@@ -2894,16 +3154,16 @@
         <v>14</v>
       </c>
       <c r="D12" s="3">
-        <f>COUNTIF(Tabla1[ESTADO],"VERIFICAR")</f>
+        <f>COUNTIF(Distribucion[ESTADO],"VERIFICAR")</f>
         <v>0</v>
       </c>
       <c r="G12" s="21">
         <v>2</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2912,27 +3172,34 @@
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <f>COUNTIF(Tabla1[ESTADO],"HECHO")</f>
+        <f>COUNTIF(Distribucion[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
       <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <f>COUNTIF(Distribucion[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
       <c r="G14" s="21">
         <v>4</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2942,34 +3209,298 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{4FD64113-ED80-0F43-95A9-9DBF9E178A47}">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{6E820B98-BCB9-B74E-A3AF-83B065D33FFD}">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BC46D-31D7-9346-BF0C-A8183120C5EB}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="str">
+        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="str">
+        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="str">
+        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="str">
+        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="str">
+        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="7">
+        <f>SUBTOTAL(109,Planeacion[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <f>COUNTIF(Planeacion[ESTADO],"HACER")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <f>COUNTIF(Planeacion[ESTADO],"HACIENDO")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <f>COUNTIF(Planeacion[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
+        <f>COUNTIF(Planeacion[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <f>COUNTIF(Planeacion[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="46" priority="7" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="10" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="11" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="12" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{A3DCC8F9-4E73-E547-BE62-55E768E9A341}">
-      <formula1>"HACER, HACIENDO, HECHO, VERIFICAR"</formula1>
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
+++ b/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16703F0-D462-2F48-93F0-4A77411B10C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C884A35F-0EE9-9746-8FBF-59E3ABF38601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="REUNION 01-09-2022" sheetId="20" r:id="rId2"/>
-    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId3"/>
-    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId4"/>
-    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId5"/>
-    <sheet name="PLANEACION 28-08-2022" sheetId="9" r:id="rId6"/>
+    <sheet name="REUNION 02-09-2022" sheetId="21" r:id="rId2"/>
+    <sheet name="REUNION 01-09-2022" sheetId="20" r:id="rId3"/>
+    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId4"/>
+    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId5"/>
+    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -164,10 +164,46 @@
     <t>HACER</t>
   </si>
   <si>
-    <t>POSPUESTO</t>
-  </si>
-  <si>
     <t>ACTIVIDADES POSPUESTAS</t>
+  </si>
+  <si>
+    <t>HECHO</t>
+  </si>
+  <si>
+    <t>El Compañero Alejandro Garcia no se conecto a las reuniones realizadas en la semana, por lo cual se desconocia el progreso de la actividad que se le habia asignado</t>
+  </si>
+  <si>
+    <t>Se decidio repartir la actividad que se le habia asignado entre los miembros del equipo que si han estado activos en las reuniones del Sprint para poder avanzar en el proceso</t>
+  </si>
+  <si>
+    <t>MySQLWorkbench</t>
+  </si>
+  <si>
+    <t>MER INVENTARIO_LLANTAS</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE CLASES INVENTARIO DE LLANTAS</t>
+  </si>
+  <si>
+    <t>yEd</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>PLANEACION Y DISTRIBUCION</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 1</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 2</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 3</t>
+  </si>
+  <si>
+    <t>TUTORIA</t>
   </si>
 </sst>
 </file>
@@ -285,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -569,17 +605,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -629,6 +712,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,56 +798,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="91">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -732,24 +851,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -783,6 +884,186 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="8" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -793,6 +1074,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -832,18 +1143,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
       </font>
@@ -924,112 +1223,43 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1039,6 +1269,33 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1048,85 +1305,90 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
@@ -1139,89 +1401,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1258,13 +1441,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>71121</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3058160</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -1308,13 +1491,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3048000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -1358,13 +1541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>202404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3025777</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
@@ -1408,13 +1591,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>238123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>3044825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>206374</xdr:rowOff>
@@ -1456,19 +1639,86 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>62091</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>197555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3076222</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827B344B-3331-E543-85D1-BA8BFE6FC49C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8655758" y="9750777"/>
+          <a:ext cx="3014131" cy="1883832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70A4F03D-6E61-E84D-BEFA-21C76986CDAA}" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5ACF9CC-BD44-E14E-AAC2-63AD590D4699}" name="Reunion37" displayName="Reunion37" ref="A1:F7" totalsRowCount="1" headerRowDxfId="55">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1B44A4FC-9761-4840-B362-B0B67D46979D}" name="ID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{BDDC95EC-E4E2-9548-BB7C-B4B36749B07D}" name="VALOR" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{7FC7D9C6-9373-1D43-8BC0-9693E8633ADC}" name="ACTIVIDAD" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5A31B5C8-136A-C54E-8EC8-BD9E610E161C}" name="RESPONSABLE" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{ADB9CF60-B088-1546-A904-459333E6AE8A}" name="ESTADO" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C4728F1A-A765-704A-88C1-4AD6C63B8640}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{591DE6F2-A06B-9D46-BE8A-79DEEF8BCAE8}" name="ID" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{DC998DB0-3CD2-A34E-9F31-5D66476C382A}" name="VALOR" totalsRowDxfId="45" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{CB8B5BB5-79F1-254A-AC9E-DA110767FA59}" name="ACTIVIDAD" dataDxfId="53" totalsRowDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{49F7F14D-51A5-2E4E-9303-F4F422ECD62B}" name="RESPONSABLE" dataDxfId="52" totalsRowDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{4BE6F1D9-6515-574D-B6FA-CE2A1EA2C3FC}" name="ESTADO" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{39C1ECF6-729A-9444-8510-FDF8CFBC1B2E}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="42" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70A4F03D-6E61-E84D-BEFA-21C76986CDAA}" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="90">
+  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1B44A4FC-9761-4840-B362-B0B67D46979D}" name="ID" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{BDDC95EC-E4E2-9548-BB7C-B4B36749B07D}" name="VALOR" totalsRowDxfId="49" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{7FC7D9C6-9373-1D43-8BC0-9693E8633ADC}" name="ACTIVIDAD" dataDxfId="88" totalsRowDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{5A31B5C8-136A-C54E-8EC8-BD9E610E161C}" name="RESPONSABLE" dataDxfId="87" totalsRowDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{ADB9CF60-B088-1546-A904-459333E6AE8A}" name="ESTADO" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{C4728F1A-A765-704A-88C1-4AD6C63B8640}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="46" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1476,16 +1726,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="86">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="84">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" totalsRowDxfId="21" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="84" totalsRowDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="83" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="82" totalsRowDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="81" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="62" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1493,16 +1743,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="73">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="78">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" totalsRowDxfId="71" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="76" totalsRowDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="75" totalsRowDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="57" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1510,34 +1760,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="56">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="72">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" totalsRowDxfId="54" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" dataDxfId="56" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="70" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="69" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41261913-023D-9742-9092-C234634FC4AA}" name="Planeacion" displayName="Planeacion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="39">
-  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B00B770C-E8F2-CB46-A39B-1F22E5737A8F}" name="ID" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{5618240B-7421-2E49-B85A-37682FDA546C}" name="VALOR" totalsRowDxfId="37" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{FD0BACDA-4B7C-AE4A-B6CC-54F3CF36C08D}" name="ACTIVIDAD" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{FD255310-A28E-5448-BD5D-4F7B55D7AFCB}" name="RESPONSABLE" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{EDB2A1F3-0893-E44D-BCDD-5AACC2B519F8}" name="ESTADO" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{684EEF9A-6840-2141-90A0-69B802ECABA8}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1807,292 +2040,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30953C18-D402-474E-9F52-63E7C872EAD8}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="50.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="43" t="s">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="59">
+        <v>44801</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="42"/>
+      <c r="G2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="28"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="28"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="28"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="43"/>
+      <c r="G3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="43"/>
+      <c r="G4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="43"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="43"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="59">
+        <v>44802</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="43"/>
+      <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="28"/>
-      <c r="F9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="46" t="s">
+      <c r="H9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="28"/>
-      <c r="F10" s="23" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="43"/>
+      <c r="G10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="47">
+      <c r="H10" s="29">
         <v>44805</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="28"/>
-      <c r="F11" s="23" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="43"/>
+      <c r="G11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="H11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>3</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <v>4</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="29"/>
-      <c r="F25" s="1" t="s">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="59">
+        <v>44803</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="59">
+        <v>37500</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="44"/>
+      <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="59">
+        <v>44806</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="63"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="63"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="43"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+  <mergeCells count="54">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A20:A25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E20:E25"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E8:E13"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2100,11 +2440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19891FED-D2D3-7A41-B50E-8194D783E769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DD20D-2421-5549-8FE2-FCCDD1F6E994}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2118,261 +2458,553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="6" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
+        <f>SUBTOTAL(109,Reunion37[PROGRESO])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Reunion37[ESTADO],"HACER")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Reunion37[ESTADO],"HACIENDO")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Reunion37[ESTADO],"VERIFICAR")</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Reunion37[ESTADO],"HECHO")</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="6" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="6" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="D14" s="2">
+        <f>COUNTIF(Reunion37[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="6" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="6" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7">
-        <f>SUBTOTAL(109,Reunion3[PROGRESO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <f>COUNTIF(Reunion3[ESTADO],"HACER")</f>
-        <v>2</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <f>COUNTIF(Reunion3[ESTADO],"HACIENDO")</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3">
-        <f>COUNTIF(Reunion3[ESTADO],"VERIFICAR")</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
-        <v>2</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
-        <f>COUNTIF(Reunion3[ESTADO],"HECHO")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>3</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3">
-        <f>COUNTIF(Reunion3[ESTADO],"POSPUESTO")</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="21">
-        <v>4</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{6009AA8E-79D2-1D4A-BF0B-AC8FAF0361A9}">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{E9F83B1C-BD5F-1F45-8389-EB1481E856DF}">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19891FED-D2D3-7A41-B50E-8194D783E769}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
+        <f>SUBTOTAL(109,Reunion3[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Reunion3[ESTADO],"HACER")</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Reunion3[ESTADO],"HACIENDO")</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Reunion3[ESTADO],"VERIFICAR")</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Reunion3[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Reunion3[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="8" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2391,12 +3023,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2A483-9E80-6B40-A127-ED09E1519ABA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2410,261 +3042,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="5" t="str">
         <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="5" t="str">
         <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="5" t="str">
         <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="5" t="str">
         <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="5" t="str">
         <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
         <f>SUBTOTAL(109,Reunion2[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>COUNTIF(Reunion2[ESTADO],"HACER")</f>
         <v>3</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>COUNTIF(Reunion2[ESTADO],"HACIENDO")</f>
         <v>1</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>COUNTIF(Reunion2[ESTADO],"VERIFICAR")</f>
         <v>1</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>2</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f>COUNTIF(Reunion2[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>3</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
         <f>COUNTIF(Reunion2[ESTADO],"POSPUESTO")</f>
         <v>0</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>4</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
-      <formula>($E2="POSPUESTO")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2683,12 +3315,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44FC23-7A3E-0C46-A9BD-B97D74A269B3}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2702,258 +3334,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="5" t="str">
         <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="5" t="str">
         <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="5" t="str">
         <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="5" t="str">
         <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="5" t="str">
         <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
         <f>SUBTOTAL(109,Reunion1[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>COUNTIF(Reunion1[ESTADO],"HACER")</f>
         <v>4</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>COUNTIF(Reunion1[ESTADO],"HACIENDO")</f>
         <v>1</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>COUNTIF(Reunion1[ESTADO],"VERIFICAR")</f>
         <v>0</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>2</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f>COUNTIF(Reunion1[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>3</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
         <f>COUNTIF(Reunion1[ESTADO],"POSPUESTO")</f>
         <v>0</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>4</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2972,285 +3604,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7">
-        <f>SUBTOTAL(109,Distribucion[PROGRESO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <f>COUNTIF(Distribucion[ESTADO],"HACER")</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <f>COUNTIF(Distribucion[ESTADO],"HACIENDO")</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3">
-        <f>COUNTIF(Distribucion[ESTADO],"VERIFICAR")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>2</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
-        <f>COUNTIF(Distribucion[ESTADO],"HECHO")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>3</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3">
-        <f>COUNTIF(Distribucion[ESTADO],"POSPUESTO")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>4</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="63" priority="4" stopIfTrue="1">
-      <formula>($E2="VERIFICAR")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
-      <formula>($E2="HECHO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="6" stopIfTrue="1">
-      <formula>($E2="HACIENDO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
-      <formula>($E2="HACER")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>0.67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" stopIfTrue="1" operator="between">
-      <formula>0.34</formula>
-      <formula>0.66</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0.33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{4FD64113-ED80-0F43-95A9-9DBF9E178A47}">
-      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{6E820B98-BCB9-B74E-A3AF-83B065D33FFD}">
-      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BC46D-31D7-9346-BF0C-A8183120C5EB}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -3268,238 +3623,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="str">
-        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
+        <f>SUBTOTAL(109,Distribucion[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"HACER")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"HACIENDO")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="str">
-        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="str">
-        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="str">
-        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="str">
-        <f>IF(Planeacion[[#This Row],[ESTADO]]="HECHO",Planeacion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7">
-        <f>SUBTOTAL(109,Planeacion[PROGRESO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <f>COUNTIF(Planeacion[ESTADO],"HACER")</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <f>COUNTIF(Planeacion[ESTADO],"HACIENDO")</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3">
-        <f>COUNTIF(Planeacion[ESTADO],"VERIFICAR")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
-        <f>COUNTIF(Planeacion[ESTADO],"HECHO")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3">
-        <f>COUNTIF(Planeacion[ESTADO],"POSPUESTO")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="46" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{A3DCC8F9-4E73-E547-BE62-55E768E9A341}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{4FD64113-ED80-0F43-95A9-9DBF9E178A47}">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{6E820B98-BCB9-B74E-A3AF-83B065D33FFD}">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
+++ b/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C884A35F-0EE9-9746-8FBF-59E3ABF38601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D159E2A-7F20-BC4B-8BCA-3B69DBE373A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="REUNION 02-09-2022" sheetId="21" r:id="rId2"/>
-    <sheet name="REUNION 01-09-2022" sheetId="20" r:id="rId3"/>
-    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId4"/>
-    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId5"/>
-    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId6"/>
+    <sheet name="REUNION 04-09-2022" sheetId="22" r:id="rId2"/>
+    <sheet name="REUNION 02-09-2022" sheetId="21" r:id="rId3"/>
+    <sheet name="TUTORIA 01-09-2022" sheetId="20" r:id="rId4"/>
+    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId5"/>
+    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId6"/>
+    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -204,6 +205,12 @@
   </si>
   <si>
     <t>TUTORIA</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 4</t>
+  </si>
+  <si>
+    <t>POSPUESTO</t>
   </si>
 </sst>
 </file>
@@ -714,6 +721,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,18 +754,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,48 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -816,22 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,440 +846,30 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="109">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1293,7 +890,95 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1323,7 +1008,95 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1353,9 +1126,98 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1365,15 +1227,107 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1383,15 +1337,107 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1401,28 +1447,99 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1689,19 +1806,86 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36690</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3084690</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5908D7-37AB-3447-98FC-73CD2FFE6B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10817579" y="11994445"/>
+          <a:ext cx="3048000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5ACF9CC-BD44-E14E-AAC2-63AD590D4699}" name="Reunion37" displayName="Reunion37" ref="A1:F7" totalsRowCount="1" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A853B00-DDD4-4B4D-B617-507F5D51678B}" name="Reunion372" displayName="Reunion372" ref="A1:F7" totalsRowCount="1" headerRowDxfId="100">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{591DE6F2-A06B-9D46-BE8A-79DEEF8BCAE8}" name="ID" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{DC998DB0-3CD2-A34E-9F31-5D66476C382A}" name="VALOR" totalsRowDxfId="45" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{CB8B5BB5-79F1-254A-AC9E-DA110767FA59}" name="ACTIVIDAD" dataDxfId="53" totalsRowDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{49F7F14D-51A5-2E4E-9303-F4F422ECD62B}" name="RESPONSABLE" dataDxfId="52" totalsRowDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{4BE6F1D9-6515-574D-B6FA-CE2A1EA2C3FC}" name="ESTADO" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{39C1ECF6-729A-9444-8510-FDF8CFBC1B2E}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="42" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{B8842E4A-CC18-D34C-9B00-B0139091736A}" name="ID" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{184E2062-8377-B54A-B65C-8574903F6D2F}" name="VALOR" totalsRowDxfId="98" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{2DD46EB5-6AE4-AB49-8571-ED44C274E61B}" name="ACTIVIDAD" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{9C748491-42D9-5642-97EE-AE9AC44D59D2}" name="RESPONSABLE" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{E7546DE8-8B7E-0547-A3EA-D58EACD00331}" name="ESTADO" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{E673E466-56E9-7941-A3A3-1AF69B8ACCBB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5ACF9CC-BD44-E14E-AAC2-63AD590D4699}" name="Reunion37" displayName="Reunion37" ref="A1:F7" totalsRowCount="1" headerRowDxfId="82">
+  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{591DE6F2-A06B-9D46-BE8A-79DEEF8BCAE8}" name="ID" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{DC998DB0-3CD2-A34E-9F31-5D66476C382A}" name="VALOR" totalsRowDxfId="80" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{CB8B5BB5-79F1-254A-AC9E-DA110767FA59}" name="ACTIVIDAD" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{49F7F14D-51A5-2E4E-9303-F4F422ECD62B}" name="RESPONSABLE" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{4BE6F1D9-6515-574D-B6FA-CE2A1EA2C3FC}" name="ESTADO" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{39C1ECF6-729A-9444-8510-FDF8CFBC1B2E}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1709,16 +1893,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70A4F03D-6E61-E84D-BEFA-21C76986CDAA}" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="90">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70A4F03D-6E61-E84D-BEFA-21C76986CDAA}" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="64">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1B44A4FC-9761-4840-B362-B0B67D46979D}" name="ID" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{BDDC95EC-E4E2-9548-BB7C-B4B36749B07D}" name="VALOR" totalsRowDxfId="49" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{7FC7D9C6-9373-1D43-8BC0-9693E8633ADC}" name="ACTIVIDAD" dataDxfId="88" totalsRowDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{5A31B5C8-136A-C54E-8EC8-BD9E610E161C}" name="RESPONSABLE" dataDxfId="87" totalsRowDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{ADB9CF60-B088-1546-A904-459333E6AE8A}" name="ESTADO" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{C4728F1A-A765-704A-88C1-4AD6C63B8640}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="46" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{1B44A4FC-9761-4840-B362-B0B67D46979D}" name="ID" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BDDC95EC-E4E2-9548-BB7C-B4B36749B07D}" name="VALOR" totalsRowDxfId="62" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{7FC7D9C6-9373-1D43-8BC0-9693E8633ADC}" name="ACTIVIDAD" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{5A31B5C8-136A-C54E-8EC8-BD9E610E161C}" name="RESPONSABLE" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{ADB9CF60-B088-1546-A904-459333E6AE8A}" name="ESTADO" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{C4728F1A-A765-704A-88C1-4AD6C63B8640}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1726,16 +1910,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="84">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="46">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="82" totalsRowDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="81" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="62" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1743,16 +1927,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="78">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="28">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="76" totalsRowDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="75" totalsRowDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="57" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1760,16 +1944,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="72">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" dataDxfId="56" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="70" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="69" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2040,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30953C18-D402-474E-9F52-63E7C872EAD8}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2061,7 +2245,7 @@
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -2073,258 +2257,258 @@
       <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="52">
         <v>44801</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="42"/>
-      <c r="G2" s="25" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="40"/>
+      <c r="G2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="43"/>
-      <c r="G3" s="25" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="41"/>
+      <c r="G3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="43"/>
-      <c r="G4" s="25" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="41"/>
+      <c r="G4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="43"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="41"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="43"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="41"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="44"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="52">
         <v>44802</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="41"/>
       <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="41"/>
       <c r="G10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="30">
         <v>44805</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="43"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="41"/>
       <c r="G11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="43"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="52">
         <v>44803</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="43"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="44"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="52">
         <v>37500</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="43"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="42"/>
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2332,59 +2516,118 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="52">
         <v>44806</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="42"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="43"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="44"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="52">
+        <v>44808</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B26:B31"/>
+  <mergeCells count="63">
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E31"/>
@@ -2392,7 +2635,6 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A20:A25"/>
     <mergeCell ref="E20:E25"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -2400,11 +2642,8 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A7"/>
     <mergeCell ref="E2:E7"/>
-    <mergeCell ref="A8:A13"/>
     <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A14:A19"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
@@ -2440,11 +2679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DD20D-2421-5549-8FE2-FCCDD1F6E994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077739A0-7BE1-0545-B3E1-4184E488F9FC}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2494,6 +2733,298 @@
         <v>45</v>
       </c>
       <c r="F2" s="5">
+        <f>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
+        <f>SUBTOTAL(109,Reunion372[PROGRESO])</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Reunion372[ESTADO],"HACER")</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Reunion372[ESTADO],"HACIENDO")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Reunion372[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Reunion372[ESTADO],"HECHO")</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Reunion372[ESTADO],"POSPUESTO")</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="108" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="7" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="8" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="103" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="3" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{AD468895-1638-2B4D-9E3B-B811CC185D5A}">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{5C9A56C2-1C01-3749-AE04-C75CBF302617}">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DD20D-2421-5549-8FE2-FCCDD1F6E994}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5">
         <f>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</f>
         <v>0.5</v>
       </c>
@@ -2688,31 +3219,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="36" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2731,12 +3262,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19891FED-D2D3-7A41-B50E-8194D783E769}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2980,31 +3511,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3023,12 +3554,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2A483-9E80-6B40-A127-ED09E1519ABA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3272,31 +3803,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3315,12 +3846,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44FC23-7A3E-0C46-A9BD-B97D74A269B3}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3564,28 +4095,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3604,12 +4135,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3843,28 +4374,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
+++ b/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/CICLO 3/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D159E2A-7F20-BC4B-8BCA-3B69DBE373A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FA335F-2EE6-1745-91FD-02B383439BC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
@@ -724,6 +724,96 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,96 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30953C18-D402-474E-9F52-63E7C872EAD8}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
@@ -2257,258 +2257,258 @@
       <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="33">
         <v>44801</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="40"/>
-      <c r="G2" s="26" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="28"/>
+      <c r="G2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="41"/>
-      <c r="G3" s="26" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="41"/>
-      <c r="G4" s="26" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="41"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="29"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="41"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="29"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="33">
         <v>44802</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="41"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="29"/>
       <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="29"/>
       <c r="G10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="60">
         <v>44805</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="41"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="29"/>
       <c r="G11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="41"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="33">
         <v>44803</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="41"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="33">
         <v>37500</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="41"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="41"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="30"/>
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2516,125 +2516,120 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="33">
         <v>44806</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="41"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="41"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="41"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="33">
         <v>44808</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="41"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="41"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="41"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="41"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="E20:E25"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -2651,27 +2646,32 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077739A0-7BE1-0545-B3E1-4184E488F9FC}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
+++ b/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/CICLO 3/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BRANDON\ACADEMICO\MISION TIC\CICLO 3\DESARROLLO DE SOFTWARE\MINTIC-84-02\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FA335F-2EE6-1745-91FD-02B383439BC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="REUNION 04-09-2022" sheetId="22" r:id="rId2"/>
-    <sheet name="REUNION 02-09-2022" sheetId="21" r:id="rId3"/>
-    <sheet name="TUTORIA 01-09-2022" sheetId="20" r:id="rId4"/>
-    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId5"/>
-    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId6"/>
-    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId7"/>
+    <sheet name="REUNION 10-09-2022" sheetId="23" r:id="rId2"/>
+    <sheet name="REUNION 04-09-2022" sheetId="22" r:id="rId3"/>
+    <sheet name="REUNION 02-09-2022" sheetId="21" r:id="rId4"/>
+    <sheet name="TUTORIA 01-09-2022" sheetId="20" r:id="rId5"/>
+    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId6"/>
+    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId7"/>
+    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -211,12 +211,15 @@
   </si>
   <si>
     <t>POSPUESTO</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -328,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -662,12 +665,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -724,27 +777,84 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,69 +894,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="127">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -885,7 +1066,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1003,7 +1183,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1121,7 +1300,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1564,8 +1742,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3058160</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4869</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -1614,8 +1792,8 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4234</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1664,8 +1842,8 @@
       <xdr:rowOff>202404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3025777</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1061</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
@@ -1714,8 +1892,8 @@
       <xdr:rowOff>238123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3044825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1059</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
@@ -1764,8 +1942,8 @@
       <xdr:rowOff>197555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3076222</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3881</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>176387</xdr:rowOff>
     </xdr:to>
@@ -1814,8 +1992,8 @@
       <xdr:rowOff>155223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3084690</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2824</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>155223</xdr:rowOff>
     </xdr:to>
@@ -1856,19 +2034,86 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38806</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>215194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2689227</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>197556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A30F7E2-1812-FB49-87B2-1107CC360317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9457973" y="14333361"/>
+          <a:ext cx="2650421" cy="1887362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A853B00-DDD4-4B4D-B617-507F5D51678B}" name="Reunion372" displayName="Reunion372" ref="A1:F7" totalsRowCount="1" headerRowDxfId="100">
-  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Reunion3728" displayName="Reunion3728" ref="A1:F7" totalsRowCount="1" headerRowDxfId="9">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B8842E4A-CC18-D34C-9B00-B0139091736A}" name="ID" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{184E2062-8377-B54A-B65C-8574903F6D2F}" name="VALOR" totalsRowDxfId="98" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{2DD46EB5-6AE4-AB49-8571-ED44C274E61B}" name="ACTIVIDAD" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{9C748491-42D9-5642-97EE-AE9AC44D59D2}" name="RESPONSABLE" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{E7546DE8-8B7E-0547-A3EA-D58EACD00331}" name="ESTADO" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{E673E466-56E9-7941-A3A3-1AF69B8ACCBB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="8"/>
+    <tableColumn id="5" name="VALOR" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="5"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reunion372" displayName="Reunion372" ref="A1:F7" totalsRowCount="1" headerRowDxfId="118">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="117"/>
+    <tableColumn id="5" name="VALOR" totalsRowDxfId="116" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="111"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1876,16 +2121,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5ACF9CC-BD44-E14E-AAC2-63AD590D4699}" name="Reunion37" displayName="Reunion37" ref="A1:F7" totalsRowCount="1" headerRowDxfId="82">
-  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Reunion37" displayName="Reunion37" ref="A1:F7" totalsRowCount="1" headerRowDxfId="100">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{591DE6F2-A06B-9D46-BE8A-79DEEF8BCAE8}" name="ID" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{DC998DB0-3CD2-A34E-9F31-5D66476C382A}" name="VALOR" totalsRowDxfId="80" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{CB8B5BB5-79F1-254A-AC9E-DA110767FA59}" name="ACTIVIDAD" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{49F7F14D-51A5-2E4E-9303-F4F422ECD62B}" name="RESPONSABLE" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{4BE6F1D9-6515-574D-B6FA-CE2A1EA2C3FC}" name="ESTADO" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{39C1ECF6-729A-9444-8510-FDF8CFBC1B2E}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="99"/>
+    <tableColumn id="5" name="VALOR" totalsRowDxfId="98" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="93"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1893,16 +2138,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70A4F03D-6E61-E84D-BEFA-21C76986CDAA}" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="64">
-  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="82">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1B44A4FC-9761-4840-B362-B0B67D46979D}" name="ID" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{BDDC95EC-E4E2-9548-BB7C-B4B36749B07D}" name="VALOR" totalsRowDxfId="62" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{7FC7D9C6-9373-1D43-8BC0-9693E8633ADC}" name="ACTIVIDAD" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{5A31B5C8-136A-C54E-8EC8-BD9E610E161C}" name="RESPONSABLE" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{ADB9CF60-B088-1546-A904-459333E6AE8A}" name="ESTADO" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{C4728F1A-A765-704A-88C1-4AD6C63B8640}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="81"/>
+    <tableColumn id="5" name="VALOR" totalsRowDxfId="80" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="75"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1910,16 +2155,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E87A051E-30B6-6543-A351-182DB28CD0DF}" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="46">
-  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="64">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5D8DDD81-A049-7A4D-8F63-C52AD0FAF0B3}" name="ID" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{3642A657-9D7D-C843-8078-ABE3CDE26154}" name="VALOR" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{E2BA7776-5644-E542-A744-A0A32EDA687D}" name="ACTIVIDAD" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{52157B39-F9FA-A748-946C-FD256BC7430D}" name="RESPONSABLE" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00E318AC-2DC1-4843-8BF7-20A1128848C1}" name="ESTADO" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{8E2B9799-F11A-334F-8747-54B12B2ED139}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="63"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="56"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1927,16 +2172,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6335B5E8-8C68-9849-B638-16F4C68A443C}" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="28">
-  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="46">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0A7A4574-5A4E-AC4E-8215-EEFA2C8E799F}" name="ID" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{A9ECA477-E218-7B40-B14E-C7ADB0FD3FAD}" name="VALOR" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{37C02F32-5CEE-904D-8C20-6A8783C18240}" name="ACTIVIDAD" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{B98B6820-93D5-5941-A278-D1F0E116E71F}" name="RESPONSABLE" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{C7834CA5-7D54-DB4A-AAB9-5FFA6FA1E74E}" name="ESTADO" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{1B286B3A-1A7F-F94F-9F0F-5AD681567A93}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="45"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="38"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1944,16 +2189,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="10">
-  <autoFilter ref="A1:F6" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="28">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="27"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="20"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2223,25 +2468,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30953C18-D402-474E-9F52-63E7C872EAD8}">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="4" width="50.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -2257,379 +2502,439 @@
       <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="52">
         <v>44801</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="56" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="40"/>
+      <c r="G2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="56" t="s">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="41"/>
+      <c r="G3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="29"/>
-      <c r="G4" s="56" t="s">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="41"/>
+      <c r="G4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="29"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="41"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="29"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="41"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="52">
         <v>44802</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="41"/>
       <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="41"/>
       <c r="G10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="30">
         <v>44805</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="41"/>
       <c r="G11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="52">
         <v>44803</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="60"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="52">
         <v>37500</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="30"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="42"/>
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="52">
         <v>44806</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="57"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="52">
         <v>44808</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="30"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="57"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="52">
+        <v>44814</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="66"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="67"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="69"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
+  <mergeCells count="72">
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="E20:E25"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -2646,32 +2951,27 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2679,24 +2979,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077739A0-7BE1-0545-B3E1-4184E488F9FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +3016,299 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
+        <f>SUBTOTAL(109,Reunion3728[PROGRESO])</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Reunion3728[ESTADO],"HACER")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Reunion3728[ESTADO],"HACIENDO")</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Reunion3728[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Reunion3728[ESTADO],"HECHO")</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Reunion3728[ESTADO],"POSPUESTO")</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2737,7 +3329,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2758,7 +3350,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2779,7 +3371,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2800,7 +3392,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2822,7 +3414,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2831,7 +3423,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +3441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -2867,7 +3459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2885,7 +3477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -2903,7 +3495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
@@ -2921,45 +3513,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="108" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="103" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{AD468895-1638-2B4D-9E3B-B811CC185D5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{5C9A56C2-1C01-3749-AE04-C75CBF302617}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2970,25 +3562,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DD20D-2421-5549-8FE2-FCCDD1F6E994}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3029,7 +3621,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3050,7 +3642,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3071,7 +3663,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3092,7 +3684,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3114,7 +3706,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3123,7 +3715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +3733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -3159,7 +3751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -3177,7 +3769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -3195,7 +3787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
@@ -3213,45 +3805,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{6009AA8E-79D2-1D4A-BF0B-AC8FAF0361A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{E9F83B1C-BD5F-1F45-8389-EB1481E856DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3262,25 +3854,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19891FED-D2D3-7A41-B50E-8194D783E769}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3300,7 +3892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3321,7 +3913,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3342,7 +3934,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3363,7 +3955,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3384,7 +3976,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3406,7 +3998,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3415,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3433,7 +4025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -3451,7 +4043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -3469,7 +4061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -3487,7 +4079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
@@ -3505,45 +4097,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="72" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="67" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{2AE79F35-8A65-9740-9C88-22C3A49FC57C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{65EEF0F7-1C29-4B42-BFB4-0282A602D55E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3554,25 +4146,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2A483-9E80-6B40-A127-ED09E1519ABA}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3592,7 +4184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3613,7 +4205,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3634,7 +4226,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3655,7 +4247,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3676,7 +4268,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3698,7 +4290,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3707,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +4317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -3743,7 +4335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +4353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -3779,7 +4371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
@@ -3797,45 +4389,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="54" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{6170A9F1-E19F-484B-9790-FDDD9E0D5236}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{671F6103-46E0-914B-B39F-9316FCB480FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3846,25 +4438,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44FC23-7A3E-0C46-A9BD-B97D74A269B3}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3884,7 +4476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3905,7 +4497,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3926,7 +4518,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3947,7 +4539,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3968,7 +4560,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3990,7 +4582,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3999,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +4609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -4053,7 +4645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -4071,7 +4663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
@@ -4089,42 +4681,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{25B94203-5B38-0441-8EC2-1CF4321DE995}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{93BE478C-9AF0-FE43-89C3-052AAE7BD85D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4135,25 +4727,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4173,7 +4765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4192,7 +4784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4211,7 +4803,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4230,7 +4822,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4249,7 +4841,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4269,7 +4861,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4278,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -4296,7 +4888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +4906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -4332,7 +4924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -4350,7 +4942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="24" t="s">
         <v>44</v>
       </c>
@@ -4368,42 +4960,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{4FD64113-ED80-0F43-95A9-9DBF9E178A47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{6E820B98-BCB9-B74E-A3AF-83B065D33FFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
+++ b/SPRINT2/FORMATO SEGUIMIENTO-SPRINT2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="REUNION 10-09-2022" sheetId="23" r:id="rId2"/>
-    <sheet name="REUNION 04-09-2022" sheetId="22" r:id="rId3"/>
-    <sheet name="REUNION 02-09-2022" sheetId="21" r:id="rId4"/>
-    <sheet name="TUTORIA 01-09-2022" sheetId="20" r:id="rId5"/>
-    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId6"/>
-    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId7"/>
-    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId8"/>
+    <sheet name="REUNION 12-09-2022" sheetId="24" r:id="rId2"/>
+    <sheet name="REUNION 10-09-2022" sheetId="23" r:id="rId3"/>
+    <sheet name="REUNION 04-09-2022" sheetId="22" r:id="rId4"/>
+    <sheet name="REUNION 02-09-2022" sheetId="21" r:id="rId5"/>
+    <sheet name="TUTORIA 01-09-2022" sheetId="20" r:id="rId6"/>
+    <sheet name="REUNION 30-08-2022" sheetId="18" r:id="rId7"/>
+    <sheet name="REUNION 29-08-2022" sheetId="17" r:id="rId8"/>
+    <sheet name="DISTRIBUCION 28-08-2022" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -214,6 +215,9 @@
   </si>
   <si>
     <t>SEGUIMIENTO 5</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 6</t>
   </si>
 </sst>
 </file>
@@ -777,6 +781,45 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,15 +847,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -852,18 +886,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,24 +914,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,117 +921,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1302,6 +1196,226 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2084,20 +2198,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2672684</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9472083" y="16848180"/>
+          <a:ext cx="2619768" cy="1471572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Reunion3728" displayName="Reunion3728" ref="A1:F7" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Reunion37289" displayName="Reunion37289" ref="A1:F7" totalsRowCount="1" headerRowDxfId="136">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="8"/>
-    <tableColumn id="5" name="VALOR" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="RESPONSABLE" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="ESTADO" dataDxfId="5"/>
-    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    <tableColumn id="1" name="ID" dataDxfId="135"/>
+    <tableColumn id="5" name="VALOR" totalsRowDxfId="134" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="129"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion37289[[#This Row],[ESTADO]]="HECHO",Reunion37289[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2105,7 +2263,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reunion372" displayName="Reunion372" ref="A1:F7" totalsRowCount="1" headerRowDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Reunion3728" displayName="Reunion3728" ref="A1:F7" totalsRowCount="1" headerRowDxfId="118">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="117"/>
@@ -2114,7 +2272,7 @@
     <tableColumn id="6" name="RESPONSABLE" dataDxfId="113" totalsRowDxfId="112"/>
     <tableColumn id="3" name="ESTADO" dataDxfId="111"/>
     <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Reunion3728[[#This Row],[ESTADO]]="HECHO",Reunion3728[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2122,7 +2280,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Reunion37" displayName="Reunion37" ref="A1:F7" totalsRowCount="1" headerRowDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reunion372" displayName="Reunion372" ref="A1:F7" totalsRowCount="1" headerRowDxfId="100">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="99"/>
@@ -2131,7 +2289,7 @@
     <tableColumn id="6" name="RESPONSABLE" dataDxfId="95" totalsRowDxfId="94"/>
     <tableColumn id="3" name="ESTADO" dataDxfId="93"/>
     <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Reunion372[[#This Row],[ESTADO]]="HECHO",Reunion372[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2139,7 +2297,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Reunion37" displayName="Reunion37" ref="A1:F7" totalsRowCount="1" headerRowDxfId="82">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="81"/>
@@ -2148,6 +2306,23 @@
     <tableColumn id="6" name="RESPONSABLE" dataDxfId="77" totalsRowDxfId="76"/>
     <tableColumn id="3" name="ESTADO" dataDxfId="75"/>
     <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion37[[#This Row],[ESTADO]]="HECHO",Reunion37[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Reunion3" displayName="Reunion3" ref="A1:F7" totalsRowCount="1" headerRowDxfId="64">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="63"/>
+    <tableColumn id="5" name="VALOR" totalsRowDxfId="62" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="57"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2155,25 +2330,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="64">
-  <autoFilter ref="A1:F6"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="63"/>
-    <tableColumn id="5" name="VALOR" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="6" name="RESPONSABLE" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="3" name="ESTADO" dataDxfId="56"/>
-    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Reunion2" displayName="Reunion2" ref="A1:F7" totalsRowCount="1" headerRowDxfId="46">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="45"/>
@@ -2182,7 +2340,7 @@
     <tableColumn id="6" name="RESPONSABLE" dataDxfId="40" totalsRowDxfId="39"/>
     <tableColumn id="3" name="ESTADO" dataDxfId="38"/>
     <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2190,7 +2348,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Reunion1" displayName="Reunion1" ref="A1:F7" totalsRowCount="1" headerRowDxfId="28">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="27"/>
@@ -2199,6 +2357,23 @@
     <tableColumn id="6" name="RESPONSABLE" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="ESTADO" dataDxfId="20"/>
     <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Distribucion" displayName="Distribucion" ref="A1:F7" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="9"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="2"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2469,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,258 +2677,258 @@
       <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="29">
         <v>44801</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="40"/>
-      <c r="G2" s="26" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="41"/>
-      <c r="G3" s="26" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="51"/>
+      <c r="G3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="41"/>
-      <c r="G4" s="26" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="51"/>
+      <c r="G4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="41"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="41"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="51"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="29">
         <v>44802</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="41"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="51"/>
       <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="41"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="51"/>
       <c r="G10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="43">
         <v>44805</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="41"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="51"/>
       <c r="G11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="41"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="29">
         <v>44803</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="41"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="29">
         <v>37500</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="41"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="41"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="52"/>
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2761,145 +2936,191 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="29">
         <v>44806</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="41"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="41"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="41"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="41"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="29">
         <v>44808</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="41"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="41"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="41"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="41"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="29">
         <v>44814</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="66"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="34"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="68"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="68"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="68"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="35"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="70"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="36"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="29">
+        <v>44816</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="34"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="35"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="35"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="81">
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="B38:B43"/>
     <mergeCell ref="C38:C39"/>
@@ -2972,6 +3193,15 @@
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2982,7 +3212,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(Reunion37289[[#This Row],[ESTADO]]="HECHO",Reunion37289[[#This Row],[VALOR]]," ")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(Reunion37289[[#This Row],[ESTADO]]="HECHO",Reunion37289[[#This Row],[VALOR]]," ")</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IF(Reunion37289[[#This Row],[ESTADO]]="HECHO",Reunion37289[[#This Row],[VALOR]]," ")</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Reunion37289[[#This Row],[ESTADO]]="HECHO",Reunion37289[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Reunion37289[[#This Row],[ESTADO]]="HECHO",Reunion37289[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
+        <f>SUBTOTAL(109,Reunion37289[PROGRESO])</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Reunion37289[ESTADO],"HACER")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Reunion37289[ESTADO],"HACIENDO")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Reunion37289[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Reunion37289[ESTADO],"HECHO")</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Reunion37289[ESTADO],"POSPUESTO")</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="144" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="5" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="6" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="7" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="8" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="139" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="3" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3227,31 +3749,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3270,7 +3792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -3519,31 +4041,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="126" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="121" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3562,7 +4084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -3811,31 +4333,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="108" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
       <formula>($E2="POSPUESTO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="103" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3845,298 +4367,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="6">
-        <f>SUBTOTAL(109,Reunion3[PROGRESO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <f>COUNTIF(Reunion3[ESTADO],"HACER")</f>
-        <v>2</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <f>COUNTIF(Reunion3[ESTADO],"HACIENDO")</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <f>COUNTIF(Reunion3[ESTADO],"VERIFICAR")</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
-        <f>COUNTIF(Reunion3[ESTADO],"HECHO")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>3</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2">
-        <f>COUNTIF(Reunion3[ESTADO],"POSPUESTO")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
-      <formula>($E2="POSPUESTO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="5" stopIfTrue="1">
-      <formula>($E2="VERIFICAR")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="6" stopIfTrue="1">
-      <formula>($E2="HECHO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="7" stopIfTrue="1">
-      <formula>($E2="HACIENDO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
-      <formula>($E2="HACER")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="greaterThan">
-      <formula>0.67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="between">
-      <formula>0.34</formula>
-      <formula>0.66</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0.33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
-      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
-      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4201,7 +4431,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4216,13 +4446,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4243,7 +4473,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4264,7 +4494,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4285,7 +4515,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion3[[#This Row],[ESTADO]]="HECHO",Reunion3[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="6"/>
@@ -4295,7 +4525,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="F7" s="6">
-        <f>SUBTOTAL(109,Reunion2[PROGRESO])</f>
+        <f>SUBTOTAL(109,Reunion3[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
@@ -4304,8 +4534,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <f>COUNTIF(Reunion2[ESTADO],"HACER")</f>
-        <v>3</v>
+        <f>COUNTIF(Reunion3[ESTADO],"HACER")</f>
+        <v>2</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>18</v>
@@ -4322,8 +4552,8 @@
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <f>COUNTIF(Reunion2[ESTADO],"HACIENDO")</f>
-        <v>1</v>
+        <f>COUNTIF(Reunion3[ESTADO],"HACIENDO")</f>
+        <v>2</v>
       </c>
       <c r="G11" s="20">
         <v>1</v>
@@ -4340,7 +4570,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <f>COUNTIF(Reunion2[ESTADO],"VERIFICAR")</f>
+        <f>COUNTIF(Reunion3[ESTADO],"VERIFICAR")</f>
         <v>1</v>
       </c>
       <c r="G12" s="20">
@@ -4358,7 +4588,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <f>COUNTIF(Reunion2[ESTADO],"HECHO")</f>
+        <f>COUNTIF(Reunion3[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
       <c r="G13" s="20">
@@ -4376,7 +4606,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="2">
-        <f>COUNTIF(Reunion2[ESTADO],"POSPUESTO")</f>
+        <f>COUNTIF(Reunion3[ESTADO],"POSPUESTO")</f>
         <v>0</v>
       </c>
       <c r="G14" s="20">
@@ -4424,11 +4654,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
-      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4490,10 +4720,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4514,7 +4744,7 @@
         <v>43</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4532,10 +4762,10 @@
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4556,7 +4786,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4577,7 +4807,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Reunion2[[#This Row],[ESTADO]]="HECHO",Reunion2[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="6"/>
@@ -4587,7 +4817,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="F7" s="6">
-        <f>SUBTOTAL(109,Reunion1[PROGRESO])</f>
+        <f>SUBTOTAL(109,Reunion2[PROGRESO])</f>
         <v>0</v>
       </c>
     </row>
@@ -4596,8 +4826,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <f>COUNTIF(Reunion1[ESTADO],"HACER")</f>
-        <v>4</v>
+        <f>COUNTIF(Reunion2[ESTADO],"HACER")</f>
+        <v>3</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>18</v>
@@ -4614,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <f>COUNTIF(Reunion1[ESTADO],"HACIENDO")</f>
+        <f>COUNTIF(Reunion2[ESTADO],"HACIENDO")</f>
         <v>1</v>
       </c>
       <c r="G11" s="20">
@@ -4632,8 +4862,8 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <f>COUNTIF(Reunion1[ESTADO],"VERIFICAR")</f>
-        <v>0</v>
+        <f>COUNTIF(Reunion2[ESTADO],"VERIFICAR")</f>
+        <v>1</v>
       </c>
       <c r="G12" s="20">
         <v>2</v>
@@ -4650,7 +4880,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <f>COUNTIF(Reunion1[ESTADO],"HECHO")</f>
+        <f>COUNTIF(Reunion2[ESTADO],"HECHO")</f>
         <v>0</v>
       </c>
       <c r="G13" s="20">
@@ -4668,7 +4898,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="2">
-        <f>COUNTIF(Reunion1[ESTADO],"POSPUESTO")</f>
+        <f>COUNTIF(Reunion2[ESTADO],"POSPUESTO")</f>
         <v>0</v>
       </c>
       <c r="G14" s="20">
@@ -4687,37 +4917,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1" stopIfTrue="1">
+      <formula>($E2="POSPUESTO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="7" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
-      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4778,6 +5011,295 @@
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Reunion1[[#This Row],[ESTADO]]="HECHO",Reunion1[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="6">
+        <f>SUBTOTAL(109,Reunion1[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Reunion1[ESTADO],"HACER")</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Reunion1[ESTADO],"HACIENDO")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Reunion1[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Reunion1[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Reunion1[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="str">
         <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
@@ -4966,28 +5488,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
